--- a/results/21_3_8 Experiment - Instance Based Sweeping/c1_s1_1_per_client_fgsm.xlsx
+++ b/results/21_3_8 Experiment - Instance Based Sweeping/c1_s1_1_per_client_fgsm.xlsx
@@ -435,16 +435,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.7380000352859497</v>
+        <v>0.7720000147819519</v>
       </c>
       <c r="C2">
-        <v>0.862000048160553</v>
+        <v>0.8700000643730164</v>
       </c>
       <c r="D2">
-        <v>0.8030000329017639</v>
+        <v>0.8210000395774841</v>
       </c>
       <c r="E2">
-        <v>0.7100000381469727</v>
+        <v>0.7350000143051147</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -452,7 +452,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.7640000581741333</v>
+        <v>0.7710000276565552</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -461,7 +461,7 @@
         <v>0.8720000386238098</v>
       </c>
       <c r="E3">
-        <v>0.7230000495910645</v>
+        <v>0.7330000400543213</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -469,16 +469,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.7379239797592163</v>
+        <v>0.8347107172012329</v>
       </c>
       <c r="C4">
-        <v>0.8657799363136292</v>
+        <v>0.8125</v>
       </c>
       <c r="D4">
-        <v>0.8030634522438049</v>
+        <v>0.8909090757369995</v>
       </c>
       <c r="E4">
-        <v>0.7108559608459473</v>
+        <v>0.7835820913314819</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -486,16 +486,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.7667009830474854</v>
+        <v>0.8264462351799011</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.8785558342933655</v>
+        <v>0.9181817770004272</v>
       </c>
       <c r="E5">
-        <v>0.7275574207305908</v>
+        <v>0.7985074520111084</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -503,16 +503,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.7407407760620117</v>
+        <v>0.7633674144744873</v>
       </c>
       <c r="C6">
-        <v>0.8439306020736694</v>
+        <v>0.8709349036216736</v>
       </c>
       <c r="D6">
-        <v>0.8023256063461304</v>
+        <v>0.8012820482254028</v>
       </c>
       <c r="E6">
-        <v>0.6904761791229248</v>
+        <v>0.7274826765060425</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -520,16 +520,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.6666666865348816</v>
+        <v>0.7633674144744873</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.9999999403953552</v>
       </c>
       <c r="D7">
-        <v>0.8023256063461304</v>
+        <v>0.8589743971824646</v>
       </c>
       <c r="E7">
-        <v>0.6190476417541504</v>
+        <v>0.7228637337684631</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -537,16 +537,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.2440000176429749</v>
+        <v>0.8680000305175781</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.289000004529953</v>
+        <v>0.7730000615119934</v>
       </c>
       <c r="E8">
-        <v>0.2210000157356262</v>
+        <v>0.8560000658035278</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -554,16 +554,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.02700000070035458</v>
+        <v>0.8790000677108765</v>
       </c>
       <c r="C9">
-        <v>0.1730000078678131</v>
+        <v>0.984000027179718</v>
       </c>
       <c r="D9">
-        <v>0.08600000292062759</v>
+        <v>0.7800000309944153</v>
       </c>
       <c r="E9">
-        <v>0.04200000315904617</v>
+        <v>0.8660000562667847</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -571,16 +571,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1.069772362709045</v>
+        <v>1.090567111968994</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.064913749694824</v>
+        <v>1.073778629302979</v>
       </c>
       <c r="E10">
-        <v>1.145441055297852</v>
+        <v>1.145163059234619</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -588,16 +588,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1.090315818786621</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
+        <v>1.089323759078979</v>
       </c>
       <c r="D11">
-        <v>1.094165086746216</v>
+        <v>1.1527019739151</v>
       </c>
       <c r="E11">
-        <v>1.149755597114563</v>
+        <v>1.199325203895569</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -605,16 +602,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1.069772362709045</v>
+        <v>1.090567111968994</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.064913749694824</v>
+        <v>1.073778629302979</v>
       </c>
       <c r="E12">
-        <v>1.145441055297852</v>
+        <v>1.145163059234619</v>
       </c>
     </row>
   </sheetData>
